--- a/scripts/files/updated_timeline-prod.xlsx
+++ b/scripts/files/updated_timeline-prod.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccahong/programming/soe-centennial-nextjs/scripts/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE13B39-804D-1341-9475-07F893B1E309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F04E95-B257-D44A-B475-1536541E4FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1541,9 +1541,6 @@
     <t>A group of people, standing in front of an object.</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/duv7bozlj/image/upload/v1742265221/SA_inst_team-031804-1712w_b1i418.jpg</t>
-  </si>
-  <si>
     <t>Designing the future: David Kelley celebrates the grand opening of Stanford’s Hasso Plattner Institute of Design (d.school)</t>
   </si>
   <si>
@@ -2447,13 +2444,16 @@
   </si>
   <si>
     <t>https://res.cloudinary.com/duv7bozlj/image/upload/v1742265175/mechanical_engineering_student_t9m8ee.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/duv7bozlj/image/upload/v1745510375/20220301_Campus_N6A9748_kz2tmj.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2530,6 +2530,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2566,10 +2573,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2622,8 +2630,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2844,7 +2856,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M112" sqref="M112"/>
+      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4687,8 +4699,8 @@
       <c r="D108" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="E108" s="10" t="s">
-        <v>432</v>
+      <c r="E108" s="18" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="70" x14ac:dyDescent="0.15">
@@ -4696,16 +4708,16 @@
         <v>2010</v>
       </c>
       <c r="B109" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="C109" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="D109" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="E109" s="10" t="s">
         <v>435</v>
-      </c>
-      <c r="E109" s="10" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="56" x14ac:dyDescent="0.15">
@@ -4713,16 +4725,16 @@
         <v>2006</v>
       </c>
       <c r="B110" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="C110" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="D110" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="E110" s="10" t="s">
         <v>439</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="84" x14ac:dyDescent="0.15">
@@ -4730,16 +4742,16 @@
         <v>2008</v>
       </c>
       <c r="B111" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="C111" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="D111" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="E111" s="10" t="s">
         <v>443</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="112" x14ac:dyDescent="0.15">
@@ -4747,16 +4759,16 @@
         <v>2010</v>
       </c>
       <c r="B112" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="C112" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="D112" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="E112" s="10" t="s">
         <v>447</v>
-      </c>
-      <c r="E112" s="10" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="70" x14ac:dyDescent="0.15">
@@ -4764,16 +4776,16 @@
         <v>2011</v>
       </c>
       <c r="B113" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="C113" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="D113" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="E113" s="10" t="s">
         <v>451</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="84" x14ac:dyDescent="0.15">
@@ -4781,16 +4793,16 @@
         <v>2014</v>
       </c>
       <c r="B114" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="C114" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="D114" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="E114" s="10" t="s">
         <v>455</v>
-      </c>
-      <c r="E114" s="10" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="98" x14ac:dyDescent="0.15">
@@ -4798,16 +4810,16 @@
         <v>2010</v>
       </c>
       <c r="B115" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="C115" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="D115" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="E115" s="10" t="s">
         <v>459</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="84" x14ac:dyDescent="0.15">
@@ -4815,16 +4827,16 @@
         <v>2014</v>
       </c>
       <c r="B116" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="C116" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="D116" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="E116" s="10" t="s">
         <v>463</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="56" x14ac:dyDescent="0.15">
@@ -4832,16 +4844,16 @@
         <v>2014</v>
       </c>
       <c r="B117" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="C117" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="D117" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="E117" s="10" t="s">
         <v>467</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="84" x14ac:dyDescent="0.15">
@@ -4849,33 +4861,33 @@
         <v>2011</v>
       </c>
       <c r="B118" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C118" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="D118" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="E118" s="10" t="s">
         <v>471</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="70" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B119" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="C119" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="D119" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="E119" s="10" t="s">
         <v>476</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="98" x14ac:dyDescent="0.15">
@@ -4883,16 +4895,16 @@
         <v>2014</v>
       </c>
       <c r="B120" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="C120" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="D120" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="E120" s="10" t="s">
         <v>480</v>
-      </c>
-      <c r="E120" s="10" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="70" x14ac:dyDescent="0.15">
@@ -4900,16 +4912,16 @@
         <v>2005</v>
       </c>
       <c r="B121" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="C121" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="D121" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="E121" s="10" t="s">
         <v>484</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="70" x14ac:dyDescent="0.15">
@@ -4917,16 +4929,16 @@
         <v>2005</v>
       </c>
       <c r="B122" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="C122" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="D122" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="E122" s="10" t="s">
         <v>488</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="70" x14ac:dyDescent="0.15">
@@ -4934,16 +4946,16 @@
         <v>2017</v>
       </c>
       <c r="B123" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="C123" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="D123" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="E123" s="10" t="s">
         <v>492</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="70" x14ac:dyDescent="0.15">
@@ -4951,16 +4963,16 @@
         <v>2012</v>
       </c>
       <c r="B124" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="C124" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="D124" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="E124" s="10" t="s">
         <v>496</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="84" x14ac:dyDescent="0.15">
@@ -4968,16 +4980,16 @@
         <v>2023</v>
       </c>
       <c r="B125" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="C125" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="D125" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="E125" s="10" t="s">
         <v>500</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="70" x14ac:dyDescent="0.15">
@@ -4985,16 +4997,16 @@
         <v>2014</v>
       </c>
       <c r="B126" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="C126" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="D126" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="E126" s="10" t="s">
         <v>504</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="70" x14ac:dyDescent="0.15">
@@ -5002,16 +5014,16 @@
         <v>2014</v>
       </c>
       <c r="B127" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="C127" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="D127" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="E127" s="10" t="s">
         <v>508</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="56" x14ac:dyDescent="0.15">
@@ -5019,16 +5031,16 @@
         <v>2022</v>
       </c>
       <c r="B128" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="C128" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="D128" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="E128" s="10" t="s">
         <v>512</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="98" x14ac:dyDescent="0.15">
@@ -5036,16 +5048,16 @@
         <v>2015</v>
       </c>
       <c r="B129" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C129" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="D129" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="E129" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="70" x14ac:dyDescent="0.15">
@@ -5053,16 +5065,16 @@
         <v>2017</v>
       </c>
       <c r="B130" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="C130" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="D130" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="E130" s="10" t="s">
         <v>520</v>
-      </c>
-      <c r="E130" s="10" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="70" x14ac:dyDescent="0.15">
@@ -5070,16 +5082,16 @@
         <v>2009</v>
       </c>
       <c r="B131" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="C131" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="D131" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="E131" s="10" t="s">
         <v>524</v>
-      </c>
-      <c r="E131" s="10" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="70" x14ac:dyDescent="0.15">
@@ -5087,16 +5099,16 @@
         <v>2023</v>
       </c>
       <c r="B132" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="C132" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="D132" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="E132" s="10" t="s">
         <v>528</v>
-      </c>
-      <c r="E132" s="10" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="70" x14ac:dyDescent="0.15">
@@ -5104,16 +5116,16 @@
         <v>2016</v>
       </c>
       <c r="B133" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="C133" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="D133" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="E133" s="10" t="s">
         <v>532</v>
-      </c>
-      <c r="E133" s="10" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="84" x14ac:dyDescent="0.15">
@@ -5121,16 +5133,16 @@
         <v>2018</v>
       </c>
       <c r="B134" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="C134" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="D134" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="E134" s="10" t="s">
         <v>536</v>
-      </c>
-      <c r="E134" s="10" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="70" x14ac:dyDescent="0.15">
@@ -5138,16 +5150,16 @@
         <v>2019</v>
       </c>
       <c r="B135" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C135" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="C135" s="9" t="s">
+      <c r="D135" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="E135" s="10" t="s">
         <v>540</v>
-      </c>
-      <c r="E135" s="10" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="70" x14ac:dyDescent="0.15">
@@ -5155,16 +5167,16 @@
         <v>2024</v>
       </c>
       <c r="B136" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="C136" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="D136" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="E136" s="10" t="s">
         <v>544</v>
-      </c>
-      <c r="E136" s="10" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="98" x14ac:dyDescent="0.15">
@@ -5172,16 +5184,16 @@
         <v>2021</v>
       </c>
       <c r="B137" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="C137" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="D137" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="E137" s="10" t="s">
         <v>548</v>
-      </c>
-      <c r="E137" s="10" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="70" x14ac:dyDescent="0.15">
@@ -5189,16 +5201,16 @@
         <v>2020</v>
       </c>
       <c r="B138" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="C138" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="D138" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="E138" s="10" t="s">
         <v>552</v>
-      </c>
-      <c r="E138" s="10" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="70" x14ac:dyDescent="0.15">
@@ -5206,16 +5218,16 @@
         <v>1987</v>
       </c>
       <c r="B139" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="C139" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="D139" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="E139" s="10" t="s">
         <v>556</v>
-      </c>
-      <c r="E139" s="10" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="70" x14ac:dyDescent="0.15">
@@ -5223,33 +5235,33 @@
         <v>2021</v>
       </c>
       <c r="B140" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="C140" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="D140" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="E140" s="10" t="s">
         <v>560</v>
-      </c>
-      <c r="E140" s="10" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="84" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B141" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="B141" s="12" t="s">
+      <c r="C141" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="D141" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="E141" s="10" t="s">
         <v>565</v>
-      </c>
-      <c r="E141" s="10" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="70" x14ac:dyDescent="0.15">
@@ -5257,16 +5269,16 @@
         <v>2023</v>
       </c>
       <c r="B142" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="C142" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="D142" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="E142" s="10" t="s">
         <v>569</v>
-      </c>
-      <c r="E142" s="10" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="70" x14ac:dyDescent="0.15">
@@ -5274,16 +5286,16 @@
         <v>2022</v>
       </c>
       <c r="B143" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="C143" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="C143" s="9" t="s">
+      <c r="D143" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="E143" s="10" t="s">
         <v>573</v>
-      </c>
-      <c r="E143" s="10" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="84" x14ac:dyDescent="0.15">
@@ -5291,16 +5303,16 @@
         <v>2022</v>
       </c>
       <c r="B144" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="C144" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="D144" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="E144" s="10" t="s">
         <v>577</v>
-      </c>
-      <c r="E144" s="10" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="70" x14ac:dyDescent="0.15">
@@ -5308,16 +5320,16 @@
         <v>2024</v>
       </c>
       <c r="B145" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="C145" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="D145" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="E145" s="10" t="s">
         <v>581</v>
-      </c>
-      <c r="E145" s="10" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="98" x14ac:dyDescent="0.15">
@@ -5325,16 +5337,16 @@
         <v>2016</v>
       </c>
       <c r="B146" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="C146" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="D146" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="E146" s="10" t="s">
         <v>585</v>
-      </c>
-      <c r="E146" s="10" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="98" x14ac:dyDescent="0.15">
@@ -5342,16 +5354,16 @@
         <v>2023</v>
       </c>
       <c r="B147" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="C147" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="C147" s="9" t="s">
+      <c r="D147" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="D147" s="5" t="s">
-        <v>589</v>
-      </c>
       <c r="E147" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="84" x14ac:dyDescent="0.15">
@@ -5359,16 +5371,16 @@
         <v>2023</v>
       </c>
       <c r="B148" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="C148" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="C148" s="9" t="s">
+      <c r="D148" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="E148" s="10" t="s">
         <v>592</v>
-      </c>
-      <c r="E148" s="10" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="70" x14ac:dyDescent="0.15">
@@ -5376,16 +5388,16 @@
         <v>2021</v>
       </c>
       <c r="B149" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="C149" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="C149" s="9" t="s">
+      <c r="D149" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="E149" s="10" t="s">
         <v>596</v>
-      </c>
-      <c r="E149" s="10" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="84" x14ac:dyDescent="0.15">
@@ -5393,16 +5405,16 @@
         <v>2025</v>
       </c>
       <c r="B150" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="C150" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="D150" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="E150" s="10" t="s">
         <v>600</v>
-      </c>
-      <c r="E150" s="10" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="84" x14ac:dyDescent="0.15">
@@ -5410,16 +5422,16 @@
         <v>2024</v>
       </c>
       <c r="B151" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="C151" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="D151" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="E151" s="10" t="s">
         <v>604</v>
-      </c>
-      <c r="E151" s="10" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="70" x14ac:dyDescent="0.15">
@@ -5427,16 +5439,16 @@
         <v>1970</v>
       </c>
       <c r="B152" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="C152" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="D152" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="E152" s="10" t="s">
         <v>608</v>
-      </c>
-      <c r="E152" s="10" t="s">
-        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -5547,51 +5559,51 @@
     <hyperlink ref="E105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
     <hyperlink ref="E106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
     <hyperlink ref="E107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="E108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="E109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="E110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="E112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="E113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="E114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="E115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="E116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="E117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="E118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="E119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="E120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="E121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="E122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="E123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="E124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="E126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="E127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="E128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="E129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="E130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="E131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="E132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="E133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="E134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="E135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="E136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="E137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="E138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="E139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="E140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="E141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="E142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="E143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="E144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="E145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="E148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="E150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="E152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E109" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E110" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E111" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="E112" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E113" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="E114" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E115" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="E116" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E117" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="E118" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E119" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="E120" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E121" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="E122" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E123" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E124" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E125" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="E126" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E127" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="E128" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E129" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="E130" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E131" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="E132" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E133" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="E134" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E135" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="E136" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="E137" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E138" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="E139" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E140" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="E141" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="E142" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="E143" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E144" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="E145" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E146" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E147" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="E148" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E149" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="E150" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E151" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="E152" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E108" r:id="rId151" xr:uid="{4939F33B-E536-CD41-9D50-47FF1305C38A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scripts/files/updated_timeline-prod.xlsx
+++ b/scripts/files/updated_timeline-prod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeccahong/programming/soe-centennial-nextjs/scripts/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F04E95-B257-D44A-B475-1536541E4FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E4E689-6D8F-4D4D-8105-864B7E692627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline objects" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="611">
   <si>
     <t>year</t>
   </si>
@@ -2447,6 +2447,9 @@
   </si>
   <si>
     <t>https://res.cloudinary.com/duv7bozlj/image/upload/v1745510375/20220301_Campus_N6A9748_kz2tmj.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/duv7bozlj/image/upload/v1742265422/SC0122_1998-144_b02_Computers_1985_0030_ma4z7u.jpg</t>
   </si>
 </sst>
 </file>
@@ -2535,6 +2538,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2855,8 +2859,8 @@
   <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4244,7 +4248,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" ht="84" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>1985</v>
       </c>
@@ -4257,8 +4261,8 @@
       <c r="D82" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="E82" s="10" t="s">
-        <v>325</v>
+      <c r="E82" s="18" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="84" x14ac:dyDescent="0.15">
@@ -5533,77 +5537,77 @@
     <hyperlink ref="E79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
     <hyperlink ref="E80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
     <hyperlink ref="E81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="E82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="E87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="E89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="E92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="E94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="E96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="E98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="E99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="E100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="E101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="E102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="E103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="E104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="E105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="E106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="E107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="E109" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="E110" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E111" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="E112" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="E113" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="E114" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="E115" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="E116" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="E117" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="E118" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="E119" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="E120" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="E121" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="E122" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="E123" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="E124" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E125" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="E126" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="E127" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="E128" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="E129" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="E130" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="E131" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="E132" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="E133" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="E134" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="E135" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="E136" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="E137" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="E138" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="E139" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="E140" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="E141" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="E142" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="E143" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="E144" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="E145" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E146" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E147" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="E148" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E149" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="E150" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E151" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="E152" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E108" r:id="rId151" xr:uid="{4939F33B-E536-CD41-9D50-47FF1305C38A}"/>
+    <hyperlink ref="E83" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E84" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E85" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E86" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E87" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E88" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E89" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E90" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E91" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E92" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E93" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="E94" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E95" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E96" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E97" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E98" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E99" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E100" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E101" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E102" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E103" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E104" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="E105" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E106" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E107" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E109" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E110" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E111" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="E112" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E113" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="E114" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E115" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="E116" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E117" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="E118" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E119" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="E120" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E121" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="E122" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E123" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E124" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E125" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="E126" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E127" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="E128" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E129" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="E130" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E131" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="E132" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E133" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="E134" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E135" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="E136" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="E137" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E138" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="E139" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E140" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="E141" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="E142" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="E143" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E144" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="E145" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E146" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E147" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="E148" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E149" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="E150" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E151" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="E152" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E108" r:id="rId150" xr:uid="{4939F33B-E536-CD41-9D50-47FF1305C38A}"/>
+    <hyperlink ref="E82" r:id="rId151" xr:uid="{B5A571B0-A2C4-8F4D-99EE-7E2095E917BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
